--- a/simulated_data/10nodes_20len_trial7.xlsx
+++ b/simulated_data/10nodes_20len_trial7.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01160485911082915</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0116048591145619</v>
+        <v>13.62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.665000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.635</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7.369999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.145</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.624786936827342</v>
+        <v>13.62</v>
       </c>
       <c r="C3" t="n">
-        <v>1.624786936815649</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.265</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.175000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.785</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.305</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.235</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.965</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7953192309207241</v>
+        <v>7.635</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7953192309302052</v>
+        <v>11.265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.864999999999998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.276848048016315</v>
+        <v>8.665000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>1.276848048009818</v>
+        <v>4.175000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.774717461369113</v>
+        <v>16.635</v>
       </c>
       <c r="C6" t="n">
-        <v>3.774717461361857</v>
+        <v>8.785</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.775</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.87</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.401638760888293</v>
+        <v>3.545</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.401638760891382</v>
+        <v>18.305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.775</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.375</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1803011213566695</v>
+        <v>1.8</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1803011213573737</v>
+        <v>11.235</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.864999999999998</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.98</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2661130688163454</v>
+        <v>7.369999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2661130688187984</v>
+        <v>8.965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.965</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007608764400083159</v>
+        <v>1.02</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007608764398557904</v>
+        <v>10.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.535</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.555</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.71</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6.145</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>11.32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="D2" t="n">
-        <v>8.359999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>8.26</v>
+        <v>7.54</v>
       </c>
       <c r="F2" t="n">
-        <v>16.83</v>
+        <v>17.53</v>
       </c>
       <c r="G2" t="n">
-        <v>4.44</v>
+        <v>4.88</v>
       </c>
       <c r="H2" t="n">
-        <v>1.99</v>
+        <v>1.52</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42</v>
+        <v>4.06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.12</v>
+        <v>12.11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.31</v>
+        <v>15.01</v>
       </c>
       <c r="E3" t="n">
-        <v>4.33</v>
+        <v>4.57</v>
       </c>
       <c r="F3" t="n">
-        <v>9.76</v>
+        <v>11.87</v>
       </c>
       <c r="G3" t="n">
-        <v>15.83</v>
+        <v>11.87</v>
       </c>
       <c r="H3" t="n">
-        <v>10.53</v>
+        <v>10.71</v>
       </c>
       <c r="I3" t="n">
-        <v>8.710000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>11.06</v>
+        <v>11.65</v>
       </c>
       <c r="K3" t="n">
-        <v>12.34</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.359999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.31</v>
+        <v>15.01</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.23</v>
+        <v>11.72</v>
       </c>
       <c r="F4" t="n">
-        <v>21.58</v>
+        <v>24.57</v>
       </c>
       <c r="G4" t="n">
-        <v>7.43</v>
+        <v>4.59</v>
       </c>
       <c r="H4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="I4" t="n">
-        <v>11.96</v>
+        <v>12.05</v>
       </c>
       <c r="J4" t="n">
-        <v>9.76</v>
+        <v>10.36</v>
       </c>
       <c r="K4" t="n">
-        <v>15.32</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.26</v>
+        <v>7.54</v>
       </c>
       <c r="C5" t="n">
-        <v>4.33</v>
+        <v>4.57</v>
       </c>
       <c r="D5" t="n">
-        <v>9.23</v>
+        <v>11.72</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.59</v>
+        <v>13.04</v>
       </c>
       <c r="G5" t="n">
-        <v>11.62</v>
+        <v>7.88</v>
       </c>
       <c r="H5" t="n">
-        <v>7.01</v>
+        <v>6.15</v>
       </c>
       <c r="I5" t="n">
-        <v>6.47</v>
+        <v>4.97</v>
       </c>
       <c r="J5" t="n">
-        <v>7.62</v>
+        <v>7.13</v>
       </c>
       <c r="K5" t="n">
-        <v>10.63</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.83</v>
+        <v>17.53</v>
       </c>
       <c r="C6" t="n">
-        <v>9.76</v>
+        <v>11.87</v>
       </c>
       <c r="D6" t="n">
-        <v>21.58</v>
+        <v>24.57</v>
       </c>
       <c r="E6" t="n">
-        <v>12.59</v>
+        <v>13.04</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.27</v>
+        <v>20.29</v>
       </c>
       <c r="H6" t="n">
-        <v>14.85</v>
+        <v>16.11</v>
       </c>
       <c r="I6" t="n">
-        <v>11.45</v>
+        <v>13.49</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>16.39</v>
       </c>
       <c r="K6" t="n">
-        <v>12.04</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.44</v>
+        <v>4.88</v>
       </c>
       <c r="C7" t="n">
-        <v>15.83</v>
+        <v>11.87</v>
       </c>
       <c r="D7" t="n">
-        <v>7.43</v>
+        <v>4.59</v>
       </c>
       <c r="E7" t="n">
-        <v>11.62</v>
+        <v>7.88</v>
       </c>
       <c r="F7" t="n">
-        <v>21.27</v>
+        <v>20.29</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.42</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>9.869999999999999</v>
+        <v>7.46</v>
       </c>
       <c r="J7" t="n">
-        <v>6.35</v>
+        <v>5.91</v>
       </c>
       <c r="K7" t="n">
-        <v>11.33</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.99</v>
+        <v>1.52</v>
       </c>
       <c r="C8" t="n">
-        <v>10.53</v>
+        <v>10.71</v>
       </c>
       <c r="D8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="E8" t="n">
-        <v>7.01</v>
+        <v>6.15</v>
       </c>
       <c r="F8" t="n">
-        <v>14.85</v>
+        <v>16.11</v>
       </c>
       <c r="G8" t="n">
-        <v>6.42</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.46</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
-        <v>0.65</v>
+        <v>1.07</v>
       </c>
       <c r="K8" t="n">
-        <v>6.02</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.42</v>
+        <v>4.06</v>
       </c>
       <c r="C9" t="n">
-        <v>8.710000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>11.96</v>
+        <v>12.05</v>
       </c>
       <c r="E9" t="n">
-        <v>6.47</v>
+        <v>4.97</v>
       </c>
       <c r="F9" t="n">
-        <v>11.45</v>
+        <v>13.49</v>
       </c>
       <c r="G9" t="n">
-        <v>9.869999999999999</v>
+        <v>7.46</v>
       </c>
       <c r="H9" t="n">
-        <v>3.46</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="K9" t="n">
-        <v>4.18</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="C10" t="n">
-        <v>11.06</v>
+        <v>11.65</v>
       </c>
       <c r="D10" t="n">
-        <v>9.76</v>
+        <v>10.36</v>
       </c>
       <c r="E10" t="n">
-        <v>7.62</v>
+        <v>7.13</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>16.39</v>
       </c>
       <c r="G10" t="n">
-        <v>6.35</v>
+        <v>5.91</v>
       </c>
       <c r="H10" t="n">
-        <v>0.65</v>
+        <v>1.07</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.03</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.63</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.4</v>
+        <v>6.43</v>
       </c>
       <c r="C11" t="n">
-        <v>12.34</v>
+        <v>11.92</v>
       </c>
       <c r="D11" t="n">
-        <v>15.32</v>
+        <v>15.45</v>
       </c>
       <c r="E11" t="n">
-        <v>10.63</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>12.04</v>
+        <v>12.41</v>
       </c>
       <c r="G11" t="n">
-        <v>11.33</v>
+        <v>10.9</v>
       </c>
       <c r="H11" t="n">
-        <v>6.02</v>
+        <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.18</v>
+        <v>3.93</v>
       </c>
       <c r="J11" t="n">
-        <v>5.63</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.136916689436041</v>
+        <v>12.33580965367301</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9622303469937887</v>
+        <v>2.644926659157978</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.646667249446434</v>
+        <v>1.259070149014435</v>
       </c>
       <c r="C3" t="n">
-        <v>4.564432729682469</v>
+        <v>-2.238590562870633</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.419371731265864</v>
+        <v>15.81778630752869</v>
       </c>
       <c r="C4" t="n">
-        <v>7.075081529435723</v>
+        <v>-5.892782112368993</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.339931148619025</v>
+        <v>5.4496236426471</v>
       </c>
       <c r="C5" t="n">
-        <v>4.166422389256758</v>
+        <v>-0.4256219491149492</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-12.54596278022628</v>
+        <v>-4.267273193418782</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.213363361141262</v>
+        <v>8.26382111495376</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.489015467608271</v>
+        <v>13.12968955328926</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06007173692406696</v>
+        <v>-2.169969773077545</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.166185848468337</v>
+        <v>10.81187252254342</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.199823839014823</v>
+        <v>2.595067211159583</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.143929006652635</v>
+        <v>8.383580461469386</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.189956268731581</v>
+        <v>3.59011678175831</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.387808323718643</v>
+        <v>11.40916856518279</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.811513393947319</v>
+        <v>3.481559424895624</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9228078755527845</v>
+        <v>8.124710889870974</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.368977701622112</v>
+        <v>7.508427950745251</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.69</v>
+        <v>2.31</v>
       </c>
       <c r="D2" t="n">
-        <v>8.970000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="E2" t="n">
-        <v>5.55</v>
+        <v>1.82</v>
       </c>
       <c r="F2" t="n">
-        <v>11.25</v>
+        <v>5.35</v>
       </c>
       <c r="G2" t="n">
-        <v>7.55</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
-        <v>3.56</v>
+        <v>0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>0.39</v>
       </c>
       <c r="J2" t="n">
-        <v>2.56</v>
+        <v>0.03</v>
       </c>
       <c r="K2" t="n">
-        <v>7.12</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.69</v>
+        <v>2.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.39</v>
+        <v>3.42</v>
       </c>
       <c r="E3" t="n">
-        <v>6.12</v>
+        <v>0.49</v>
       </c>
       <c r="F3" t="n">
-        <v>11.54</v>
+        <v>3.04</v>
       </c>
       <c r="G3" t="n">
-        <v>16.24</v>
+        <v>4.28</v>
       </c>
       <c r="H3" t="n">
-        <v>6.55</v>
+        <v>2.55</v>
       </c>
       <c r="I3" t="n">
-        <v>12.39</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
-        <v>6.55</v>
+        <v>2.29</v>
       </c>
       <c r="K3" t="n">
-        <v>14.95</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.970000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="C4" t="n">
-        <v>12.39</v>
+        <v>3.42</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6.41</v>
+        <v>2.93</v>
       </c>
       <c r="F4" t="n">
-        <v>19.94</v>
+        <v>6.46</v>
       </c>
       <c r="G4" t="n">
-        <v>12.25</v>
+        <v>0.86</v>
       </c>
       <c r="H4" t="n">
-        <v>11.68</v>
+        <v>0.87</v>
       </c>
       <c r="I4" t="n">
-        <v>6.55</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>10.25</v>
+        <v>1.14</v>
       </c>
       <c r="K4" t="n">
-        <v>14.81</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.55</v>
+        <v>1.82</v>
       </c>
       <c r="C5" t="n">
-        <v>6.12</v>
+        <v>0.49</v>
       </c>
       <c r="D5" t="n">
-        <v>6.41</v>
+        <v>2.93</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.24</v>
+        <v>3.53</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25</v>
+        <v>3.79</v>
       </c>
       <c r="H5" t="n">
-        <v>6.27</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>7.26</v>
+        <v>1.43</v>
       </c>
       <c r="J5" t="n">
-        <v>5.13</v>
+        <v>1.79</v>
       </c>
       <c r="K5" t="n">
-        <v>12.68</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.25</v>
+        <v>5.35</v>
       </c>
       <c r="C6" t="n">
-        <v>11.54</v>
+        <v>3.04</v>
       </c>
       <c r="D6" t="n">
-        <v>19.94</v>
+        <v>6.46</v>
       </c>
       <c r="E6" t="n">
-        <v>14.24</v>
+        <v>3.53</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.38</v>
+        <v>7.32</v>
       </c>
       <c r="H6" t="n">
-        <v>8.26</v>
+        <v>5.59</v>
       </c>
       <c r="I6" t="n">
-        <v>15.81</v>
+        <v>4.96</v>
       </c>
       <c r="J6" t="n">
-        <v>9.68</v>
+        <v>5.33</v>
       </c>
       <c r="K6" t="n">
-        <v>11.25</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.55</v>
+        <v>1.97</v>
       </c>
       <c r="C7" t="n">
-        <v>16.24</v>
+        <v>4.28</v>
       </c>
       <c r="D7" t="n">
-        <v>12.25</v>
+        <v>0.86</v>
       </c>
       <c r="E7" t="n">
-        <v>12.25</v>
+        <v>3.79</v>
       </c>
       <c r="F7" t="n">
-        <v>15.38</v>
+        <v>7.32</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.4</v>
+        <v>1.73</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>2.36</v>
       </c>
       <c r="J7" t="n">
-        <v>9.83</v>
+        <v>1.99</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.56</v>
+        <v>0.24</v>
       </c>
       <c r="C8" t="n">
-        <v>6.55</v>
+        <v>2.55</v>
       </c>
       <c r="D8" t="n">
-        <v>11.68</v>
+        <v>0.87</v>
       </c>
       <c r="E8" t="n">
-        <v>6.27</v>
+        <v>2.06</v>
       </c>
       <c r="F8" t="n">
-        <v>8.26</v>
+        <v>5.59</v>
       </c>
       <c r="G8" t="n">
-        <v>10.4</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.26</v>
+        <v>0.63</v>
       </c>
       <c r="J8" t="n">
-        <v>1.42</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="n">
-        <v>8.4</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.7</v>
+        <v>0.39</v>
       </c>
       <c r="C9" t="n">
-        <v>12.39</v>
+        <v>1.92</v>
       </c>
       <c r="D9" t="n">
-        <v>6.55</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>7.26</v>
+        <v>1.43</v>
       </c>
       <c r="F9" t="n">
-        <v>15.81</v>
+        <v>4.96</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>2.36</v>
       </c>
       <c r="H9" t="n">
-        <v>8.26</v>
+        <v>0.63</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.12</v>
+        <v>0.37</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.56</v>
+        <v>0.03</v>
       </c>
       <c r="C10" t="n">
-        <v>6.55</v>
+        <v>2.29</v>
       </c>
       <c r="D10" t="n">
-        <v>10.25</v>
+        <v>1.14</v>
       </c>
       <c r="E10" t="n">
-        <v>5.13</v>
+        <v>1.79</v>
       </c>
       <c r="F10" t="n">
-        <v>9.68</v>
+        <v>5.33</v>
       </c>
       <c r="G10" t="n">
-        <v>9.83</v>
+        <v>1.99</v>
       </c>
       <c r="H10" t="n">
-        <v>1.42</v>
+        <v>0.27</v>
       </c>
       <c r="I10" t="n">
-        <v>7.12</v>
+        <v>0.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.550000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.12</v>
+        <v>1.43</v>
       </c>
       <c r="C11" t="n">
-        <v>14.95</v>
+        <v>0.88</v>
       </c>
       <c r="D11" t="n">
-        <v>14.81</v>
+        <v>2.54</v>
       </c>
       <c r="E11" t="n">
-        <v>12.68</v>
+        <v>0.39</v>
       </c>
       <c r="F11" t="n">
-        <v>11.25</v>
+        <v>3.92</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>8.4</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>1.04</v>
       </c>
       <c r="J11" t="n">
-        <v>8.550000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0472495950153656</v>
+        <v>-0.01160485911082915</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02160850691961998</v>
+        <v>-0.0116048591145619</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5621375232435164</v>
+        <v>1.624786936827342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05857813500774705</v>
+        <v>1.624786936815649</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05794386491437975</v>
+        <v>-0.7953192309207241</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6468477938491386</v>
+        <v>-0.7953192309302052</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2668791478513701</v>
+        <v>1.276848048016315</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2495106284244078</v>
+        <v>1.276848048009818</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1426067837037926</v>
+        <v>3.774717461369113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7463340115764878</v>
+        <v>3.774717461361857</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5725054272935183</v>
+        <v>-1.401638760888293</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06802135522707167</v>
+        <v>-1.401638760891382</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1186598364020189</v>
+        <v>-0.1803011213566695</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1670166735271364</v>
+        <v>-0.1803011213573737</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2373379163642331</v>
+        <v>0.2661130688163454</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2921422370046632</v>
+        <v>0.2661130688187984</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1071404878128267</v>
+        <v>0.007608764400083159</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07124005810406434</v>
+        <v>0.007608764398557904</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4666521000523737</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2486114569061431</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.75</v>
+        <v>12.13</v>
       </c>
       <c r="D2" t="n">
-        <v>7.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>6.95</v>
+        <v>8.27</v>
       </c>
       <c r="F2" t="n">
-        <v>17.62</v>
+        <v>16.83</v>
       </c>
       <c r="G2" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="H2" t="n">
-        <v>0.97</v>
+        <v>1.98</v>
       </c>
       <c r="I2" t="n">
-        <v>3.28</v>
+        <v>5.42</v>
       </c>
       <c r="J2" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.75</v>
+        <v>12.13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.16</v>
+        <v>13.31</v>
       </c>
       <c r="E3" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="F3" t="n">
-        <v>6.87</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>14.62</v>
+        <v>15.83</v>
       </c>
       <c r="H3" t="n">
-        <v>9.779999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="I3" t="n">
-        <v>7.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>9.279999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="K3" t="n">
-        <v>5.35</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>18.16</v>
+        <v>13.31</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.36</v>
+        <v>9.23</v>
       </c>
       <c r="F4" t="n">
-        <v>25.03</v>
+        <v>21.58</v>
       </c>
       <c r="G4" t="n">
-        <v>3.54</v>
+        <v>7.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8.380000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>10.69</v>
+        <v>11.95</v>
       </c>
       <c r="J4" t="n">
-        <v>8.880000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="K4" t="n">
-        <v>12.81</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.95</v>
+        <v>8.27</v>
       </c>
       <c r="C5" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="D5" t="n">
-        <v>14.36</v>
+        <v>9.23</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.67</v>
+        <v>12.61</v>
       </c>
       <c r="G5" t="n">
-        <v>10.82</v>
+        <v>11.62</v>
       </c>
       <c r="H5" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="I5" t="n">
-        <v>3.67</v>
+        <v>6.45</v>
       </c>
       <c r="J5" t="n">
-        <v>5.48</v>
+        <v>7.63</v>
       </c>
       <c r="K5" t="n">
-        <v>1.55</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.62</v>
+        <v>16.83</v>
       </c>
       <c r="C6" t="n">
-        <v>6.87</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>25.03</v>
+        <v>21.58</v>
       </c>
       <c r="E6" t="n">
-        <v>10.67</v>
+        <v>12.61</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>21.49</v>
+        <v>21.27</v>
       </c>
       <c r="H6" t="n">
-        <v>16.65</v>
+        <v>14.85</v>
       </c>
       <c r="I6" t="n">
-        <v>14.34</v>
+        <v>11.44</v>
       </c>
       <c r="J6" t="n">
-        <v>16.15</v>
+        <v>14.99</v>
       </c>
       <c r="K6" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.87</v>
+        <v>4.45</v>
       </c>
       <c r="C7" t="n">
-        <v>14.62</v>
+        <v>15.83</v>
       </c>
       <c r="D7" t="n">
-        <v>3.54</v>
+        <v>7.42</v>
       </c>
       <c r="E7" t="n">
-        <v>10.82</v>
+        <v>11.62</v>
       </c>
       <c r="F7" t="n">
-        <v>21.49</v>
+        <v>21.27</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.84</v>
+        <v>6.42</v>
       </c>
       <c r="I7" t="n">
-        <v>7.15</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
       <c r="K7" t="n">
-        <v>9.27</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.97</v>
+        <v>1.98</v>
       </c>
       <c r="C8" t="n">
-        <v>9.779999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="D8" t="n">
-        <v>8.380000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.98</v>
+        <v>7.01</v>
       </c>
       <c r="F8" t="n">
-        <v>16.65</v>
+        <v>14.85</v>
       </c>
       <c r="G8" t="n">
-        <v>4.84</v>
+        <v>6.42</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="K8" t="n">
-        <v>4.43</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.28</v>
+        <v>5.42</v>
       </c>
       <c r="C9" t="n">
-        <v>7.47</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>10.69</v>
+        <v>11.95</v>
       </c>
       <c r="E9" t="n">
-        <v>3.67</v>
+        <v>6.45</v>
       </c>
       <c r="F9" t="n">
-        <v>14.34</v>
+        <v>11.44</v>
       </c>
       <c r="G9" t="n">
-        <v>7.15</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="C10" t="n">
-        <v>9.279999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="D10" t="n">
-        <v>8.880000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="E10" t="n">
-        <v>5.48</v>
+        <v>7.63</v>
       </c>
       <c r="F10" t="n">
-        <v>16.15</v>
+        <v>14.99</v>
       </c>
       <c r="G10" t="n">
-        <v>5.34</v>
+        <v>6.35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.81</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.93</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="C11" t="n">
-        <v>5.35</v>
+        <v>12.33</v>
       </c>
       <c r="D11" t="n">
-        <v>12.81</v>
+        <v>15.32</v>
       </c>
       <c r="E11" t="n">
-        <v>1.55</v>
+        <v>10.63</v>
       </c>
       <c r="F11" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="G11" t="n">
-        <v>9.27</v>
+        <v>11.34</v>
       </c>
       <c r="H11" t="n">
-        <v>4.43</v>
+        <v>6.02</v>
       </c>
       <c r="I11" t="n">
-        <v>2.12</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.93</v>
+        <v>5.63</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.364914319802068</v>
+        <v>0.2586614348926847</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.364915956141384</v>
+        <v>-4.243351636636552</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.236314097748766</v>
+        <v>2.463365493445112</v>
       </c>
       <c r="C3" t="n">
-        <v>5.236313912486685</v>
+        <v>7.679949949261432</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-7.607310472938641</v>
+        <v>8.62256555388695</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.607311469334468</v>
+        <v>-4.115088868470981</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.549575798630981</v>
+        <v>3.324546005031308</v>
       </c>
       <c r="C5" t="n">
-        <v>2.549574999747137</v>
+        <v>3.436991851824559</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.09463381853472</v>
+        <v>-6.705908792274075</v>
       </c>
       <c r="C6" t="n">
-        <v>10.09463381217122</v>
+        <v>11.0801443427236</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.103451113324446</v>
+        <v>2.387227851180529</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.103450612065727</v>
+        <v>-8.145839558369261</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.678497094189698</v>
+        <v>-0.5250387012061291</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.678494903289265</v>
+        <v>-2.422330960698698</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.04620052154443095</v>
+        <v>-2.406724701718597</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04619948454126676</v>
+        <v>0.4755236662632718</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.325232448330388</v>
+        <v>-1.057463021265714</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.325236858658705</v>
+        <v>-2.81004914604697</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.453197824231724</v>
+        <v>-6.361231121972068</v>
       </c>
       <c r="C11" t="n">
-        <v>1.453199137897313</v>
+        <v>-0.9359496398503961</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001928806304931641</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001645088195800781</v>
+        <v>10.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3317379951477051</v>
+        <v>6.13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8734228610992432</v>
+        <v>6.56</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07042670249938965</v>
+        <v>13.41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1205286979675293</v>
+        <v>6.56</v>
       </c>
       <c r="H2" t="n">
-        <v>1.234323263168335</v>
+        <v>7.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.04794380632509074</v>
       </c>
       <c r="C2" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.017543859649123</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.624</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.28609125485068</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001928806304931641</v>
+        <v>-0.2050846033937022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.4846650511684957</v>
       </c>
       <c r="C3" t="n">
-        <v>8.375</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6162280701754386</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.572</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1786312828082742</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001645088195800781</v>
+        <v>0.3565778164057657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.2331180215033244</v>
       </c>
       <c r="C4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4725274725274726</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.378444444444444</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1656311671795127</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3317379951477051</v>
+        <v>-0.5357383505877101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.2871126979041682</v>
       </c>
       <c r="C5" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9835164835164835</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.432888888888888</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7516479099989121</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5348837209302325</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8734228610992432</v>
+        <v>0.1094495681176634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.2379812411419964</v>
       </c>
       <c r="C6" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4347826086956521</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.949111111111111</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1226491967971386</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07042670249938965</v>
+        <v>0.69141080949445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.4305368708046658</v>
       </c>
       <c r="C7" t="n">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.290836653386454</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.773555555555556</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4137140866730923</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1205286979675293</v>
+        <v>-0.4555892018168637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.3392048433463988</v>
       </c>
       <c r="C8" t="n">
-        <v>9.639999999999999</v>
+        <v>0.2540771708714374</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.04771101780384018</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1668829384459006</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03667768703115482</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.2798962534149994</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.4344937286672826</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1179022521249415</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.779999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8614834673815907</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.046444444444445</v>
+        <v>5.98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2443993881490347</v>
+        <v>16.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.234323263168335</v>
+        <v>2.31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.364914319802068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.364915956141384</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.236314097748766</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.236313912486685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-7.607310472938641</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.607311469334468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.549575798630981</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.549574999747137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.09463381853472</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.09463381217122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-5.103451113324446</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.103450612065727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.678497094189698</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.678494903289265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.04620052154443095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.04619948454126676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.325232448330388</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.325236858658705</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.453197824231724</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.453199137897313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.3289335188754541</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.08892330723906906</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4813194583027993</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1216242318374259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.06264542054964896</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6727550255696944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2128998436753905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09893550769816611</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6019441462731996</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.112460605438237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.3693055247624004</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4296043532477594</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2424099016730127</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3036041034383513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02150989587207608</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2742170630360325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.225448911820737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.307370516646628</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.04591027470139441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2363435225546927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-10.73639207897445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.420574314004048</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.82763281907617</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.551452110594557</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-9.786602794999913</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17.00038049144357</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.765409443397161</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.73963509529211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28.78577602798402</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2894477171992252</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-14.61742093853676</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.860508537071908</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.345257508172678</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.351494919769906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3055712234260304</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.115006235895344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-6.163913140363852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.015890034387669</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.576339394016363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.959563013145953</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002589225769042969</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.000270843505859375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000263214111328125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.256009101867676</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.498481273651123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.223060131072998</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2369685173034668</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4480111598968506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01379847526550293</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.01000165939331055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.93</v>
+        <v>12.56</v>
       </c>
       <c r="D2" t="n">
-        <v>8.859999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="E2" t="n">
-        <v>13.63</v>
+        <v>8.26</v>
       </c>
       <c r="F2" t="n">
-        <v>11.41</v>
+        <v>18.53</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.32</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="K2" t="n">
-        <v>6.95</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.31</v>
+        <v>12.56</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.23</v>
+        <v>11.76</v>
       </c>
       <c r="E3" t="n">
-        <v>4.44</v>
+        <v>4.92</v>
       </c>
       <c r="F3" t="n">
-        <v>9.07</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>12.6</v>
+        <v>9.24</v>
       </c>
       <c r="H3" t="n">
-        <v>13.18</v>
+        <v>11.03</v>
       </c>
       <c r="I3" t="n">
-        <v>9.69</v>
+        <v>10.28</v>
       </c>
       <c r="J3" t="n">
-        <v>12.08</v>
+        <v>11.67</v>
       </c>
       <c r="K3" t="n">
-        <v>12.2</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.41</v>
+        <v>9.02</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3</v>
+        <v>11.76</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.279999999999999</v>
+        <v>10.77</v>
       </c>
       <c r="F4" t="n">
-        <v>32.79</v>
+        <v>21.03</v>
       </c>
       <c r="G4" t="n">
-        <v>8.279999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="H4" t="n">
-        <v>10.78</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>14.34</v>
+        <v>11.35</v>
       </c>
       <c r="J4" t="n">
-        <v>9.289999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>15.44</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.7</v>
+        <v>8.26</v>
       </c>
       <c r="C5" t="n">
-        <v>3.91</v>
+        <v>4.92</v>
       </c>
       <c r="D5" t="n">
-        <v>6.28</v>
+        <v>10.77</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.76</v>
+        <v>10.83</v>
       </c>
       <c r="G5" t="n">
-        <v>7.95</v>
+        <v>6.13</v>
       </c>
       <c r="H5" t="n">
-        <v>7.72</v>
+        <v>6.57</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>5.39</v>
       </c>
       <c r="J5" t="n">
-        <v>11.89</v>
+        <v>7.31</v>
       </c>
       <c r="K5" t="n">
-        <v>10.77</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.86</v>
+        <v>18.53</v>
       </c>
       <c r="C6" t="n">
-        <v>8.5</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>20.71</v>
+        <v>21.03</v>
       </c>
       <c r="E6" t="n">
-        <v>11.74</v>
+        <v>10.83</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.85</v>
+        <v>16.96</v>
       </c>
       <c r="H6" t="n">
-        <v>15.55</v>
+        <v>16.77</v>
       </c>
       <c r="I6" t="n">
-        <v>21.26</v>
+        <v>14.58</v>
       </c>
       <c r="J6" t="n">
-        <v>13.06</v>
+        <v>17.58</v>
       </c>
       <c r="K6" t="n">
-        <v>8.869999999999999</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.99</v>
+        <v>4.32</v>
       </c>
       <c r="C7" t="n">
-        <v>24.01</v>
+        <v>9.24</v>
       </c>
       <c r="D7" t="n">
-        <v>4.93</v>
+        <v>5.75</v>
       </c>
       <c r="E7" t="n">
-        <v>10.83</v>
+        <v>6.13</v>
       </c>
       <c r="F7" t="n">
-        <v>16.7</v>
+        <v>16.96</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>5.35</v>
+        <v>3.77</v>
       </c>
       <c r="I7" t="n">
-        <v>15.63</v>
+        <v>5.61</v>
       </c>
       <c r="J7" t="n">
-        <v>7.4</v>
+        <v>3.81</v>
       </c>
       <c r="K7" t="n">
-        <v>8.460000000000001</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="C8" t="n">
-        <v>9.289999999999999</v>
+        <v>11.03</v>
       </c>
       <c r="D8" t="n">
-        <v>8.949999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.52</v>
+        <v>6.57</v>
       </c>
       <c r="F8" t="n">
-        <v>10.63</v>
+        <v>16.77</v>
       </c>
       <c r="G8" t="n">
-        <v>4.47</v>
+        <v>3.77</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="K8" t="n">
-        <v>8.65</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.54</v>
+        <v>4.26</v>
       </c>
       <c r="C9" t="n">
-        <v>8.24</v>
+        <v>10.28</v>
       </c>
       <c r="D9" t="n">
-        <v>8.67</v>
+        <v>11.35</v>
       </c>
       <c r="E9" t="n">
-        <v>7.17</v>
+        <v>5.39</v>
       </c>
       <c r="F9" t="n">
-        <v>9.039999999999999</v>
+        <v>14.58</v>
       </c>
       <c r="G9" t="n">
-        <v>9.23</v>
+        <v>5.61</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.97</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.69</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.24</v>
+        <v>0.96</v>
       </c>
       <c r="C10" t="n">
-        <v>9.279999999999999</v>
+        <v>11.67</v>
       </c>
       <c r="D10" t="n">
-        <v>8.460000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>7.71</v>
+        <v>7.31</v>
       </c>
       <c r="F10" t="n">
-        <v>12.01</v>
+        <v>17.58</v>
       </c>
       <c r="G10" t="n">
-        <v>7.71</v>
+        <v>3.81</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>0.82</v>
       </c>
       <c r="I10" t="n">
-        <v>4.81</v>
+        <v>3.45</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.15</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.34</v>
+        <v>7.25</v>
       </c>
       <c r="C11" t="n">
-        <v>10.44</v>
+        <v>13.04</v>
       </c>
       <c r="D11" t="n">
-        <v>19.16</v>
+        <v>15.33</v>
       </c>
       <c r="E11" t="n">
-        <v>11.61</v>
+        <v>8.23</v>
       </c>
       <c r="F11" t="n">
-        <v>12.87</v>
+        <v>14.67</v>
       </c>
       <c r="G11" t="n">
-        <v>6.29</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>7.31</v>
+        <v>6.26</v>
       </c>
       <c r="I11" t="n">
-        <v>4.24</v>
+        <v>4.04</v>
       </c>
       <c r="J11" t="n">
-        <v>7.27</v>
+        <v>6.78</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.79241332258798</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.78566266701001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.774321500703151</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.242920818534989</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.95465397149198</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3929229283475218</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.256645266426258</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.65577901127816</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.934010675261072</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.010674202191504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.10855871455139</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.481138393924158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.33153626266039</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.804166099020808</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.635967490174238</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.864244516066381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.07300438055708</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.151338067714377</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.817310435586793</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.75772592678922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.017543859649123</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.624</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.28609125485068</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001928806304931641</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8.375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6162280701754386</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1786312828082742</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001645088195800781</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4725274725274726</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.378444444444444</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1656311671795127</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3317379951477051</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9835164835164835</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.432888888888888</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7516479099989121</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8734228610992432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4347826086956521</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.949111111111111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1226491967971386</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07042670249938965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.290836653386454</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.773555555555556</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4137140866730923</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1205286979675293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9.639999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8614834673815907</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.046444444444445</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2443993881490347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.234323263168335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.62</v>
+        <v>10.93</v>
       </c>
       <c r="D2" t="n">
-        <v>7.635</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>8.665000000000001</v>
+        <v>13.63</v>
       </c>
       <c r="F2" t="n">
-        <v>16.635</v>
+        <v>11.41</v>
       </c>
       <c r="G2" t="n">
-        <v>3.545</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>7.369999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.145</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.62</v>
+        <v>16.31</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.265</v>
+        <v>7.23</v>
       </c>
       <c r="E3" t="n">
-        <v>4.175000000000001</v>
+        <v>4.44</v>
       </c>
       <c r="F3" t="n">
-        <v>8.785</v>
+        <v>9.07</v>
       </c>
       <c r="G3" t="n">
-        <v>18.305</v>
+        <v>12.6</v>
       </c>
       <c r="H3" t="n">
-        <v>11.235</v>
+        <v>13.18</v>
       </c>
       <c r="I3" t="n">
-        <v>8.965</v>
+        <v>9.69</v>
       </c>
       <c r="J3" t="n">
-        <v>10.68</v>
+        <v>12.08</v>
       </c>
       <c r="K3" t="n">
-        <v>11.32</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.635</v>
+        <v>6.41</v>
       </c>
       <c r="C4" t="n">
-        <v>11.265</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.779999999999999</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>26.75</v>
+        <v>32.79</v>
       </c>
       <c r="G4" t="n">
-        <v>6.605</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>9.864999999999998</v>
+        <v>10.78</v>
       </c>
       <c r="I4" t="n">
-        <v>11.505</v>
+        <v>14.34</v>
       </c>
       <c r="J4" t="n">
-        <v>8.875</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>17.3</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.665000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="C5" t="n">
-        <v>4.175000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="D5" t="n">
-        <v>7.779999999999999</v>
+        <v>6.28</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.75</v>
+        <v>7.76</v>
       </c>
       <c r="G5" t="n">
-        <v>9.390000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="H5" t="n">
-        <v>8.119999999999999</v>
+        <v>7.72</v>
       </c>
       <c r="I5" t="n">
-        <v>6.435</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>9.800000000000001</v>
+        <v>11.89</v>
       </c>
       <c r="K5" t="n">
-        <v>11.19</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.635</v>
+        <v>21.86</v>
       </c>
       <c r="C6" t="n">
-        <v>8.785</v>
+        <v>8.5</v>
       </c>
       <c r="D6" t="n">
-        <v>26.75</v>
+        <v>20.71</v>
       </c>
       <c r="E6" t="n">
-        <v>9.75</v>
+        <v>11.74</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>26.775</v>
+        <v>36.85</v>
       </c>
       <c r="H6" t="n">
-        <v>13.09</v>
+        <v>15.55</v>
       </c>
       <c r="I6" t="n">
-        <v>15.15</v>
+        <v>21.26</v>
       </c>
       <c r="J6" t="n">
-        <v>12.535</v>
+        <v>13.06</v>
       </c>
       <c r="K6" t="n">
-        <v>10.87</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.545</v>
+        <v>2.99</v>
       </c>
       <c r="C7" t="n">
-        <v>18.305</v>
+        <v>24.01</v>
       </c>
       <c r="D7" t="n">
-        <v>6.605</v>
+        <v>4.93</v>
       </c>
       <c r="E7" t="n">
-        <v>9.390000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="F7" t="n">
-        <v>26.775</v>
+        <v>16.7</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.91</v>
+        <v>5.35</v>
       </c>
       <c r="I7" t="n">
-        <v>12.43</v>
+        <v>15.63</v>
       </c>
       <c r="J7" t="n">
-        <v>7.555</v>
+        <v>7.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.375</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="C8" t="n">
-        <v>11.235</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.864999999999998</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.119999999999999</v>
+        <v>8.52</v>
       </c>
       <c r="F8" t="n">
-        <v>13.09</v>
+        <v>10.63</v>
       </c>
       <c r="G8" t="n">
-        <v>4.91</v>
+        <v>4.47</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.985</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="K8" t="n">
-        <v>7.98</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.369999999999999</v>
+        <v>5.54</v>
       </c>
       <c r="C9" t="n">
-        <v>8.965</v>
+        <v>8.24</v>
       </c>
       <c r="D9" t="n">
-        <v>11.505</v>
+        <v>8.67</v>
       </c>
       <c r="E9" t="n">
-        <v>6.435</v>
+        <v>7.17</v>
       </c>
       <c r="F9" t="n">
-        <v>15.15</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.43</v>
+        <v>9.23</v>
       </c>
       <c r="H9" t="n">
-        <v>1.985</v>
+        <v>1.33</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.39</v>
+        <v>3.97</v>
       </c>
       <c r="K9" t="n">
-        <v>3.965</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.02</v>
+        <v>1.24</v>
       </c>
       <c r="C10" t="n">
-        <v>10.68</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>8.875</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>9.800000000000001</v>
+        <v>7.71</v>
       </c>
       <c r="F10" t="n">
-        <v>12.535</v>
+        <v>12.01</v>
       </c>
       <c r="G10" t="n">
-        <v>7.555</v>
+        <v>7.71</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.39</v>
+        <v>4.81</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.71</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.145</v>
+        <v>5.34</v>
       </c>
       <c r="C11" t="n">
-        <v>11.32</v>
+        <v>10.44</v>
       </c>
       <c r="D11" t="n">
-        <v>17.3</v>
+        <v>19.16</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19</v>
+        <v>11.61</v>
       </c>
       <c r="F11" t="n">
-        <v>10.87</v>
+        <v>12.87</v>
       </c>
       <c r="G11" t="n">
-        <v>7.375</v>
+        <v>6.29</v>
       </c>
       <c r="H11" t="n">
-        <v>7.98</v>
+        <v>7.31</v>
       </c>
       <c r="I11" t="n">
-        <v>3.965</v>
+        <v>4.24</v>
       </c>
       <c r="J11" t="n">
-        <v>6.71</v>
+        <v>7.27</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18.53</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.619999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C9" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F10" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="D11" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11.79241332258798</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.78566266701001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.774321500703151</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-3.242920818534989</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>16.95465397149198</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3929229283475218</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6.256645266426258</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.65577901127816</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-3.934010675261072</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-2.010674202191504</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.10855871455139</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.481138393924158</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>10.33153626266039</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.804166099020808</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.635967490174238</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.864244516066381</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11.07300438055708</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.151338067714377</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.817310435586793</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.75772592678922</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.31</v>
+        <v>13.35</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>7.54</v>
       </c>
       <c r="E2" t="n">
-        <v>1.82</v>
+        <v>7.1</v>
       </c>
       <c r="F2" t="n">
-        <v>5.35</v>
+        <v>15.79</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>0.39</v>
+        <v>7.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="K2" t="n">
-        <v>1.43</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.31</v>
+        <v>13.35</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.42</v>
+        <v>10.51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49</v>
+        <v>4.17</v>
       </c>
       <c r="F3" t="n">
-        <v>3.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28</v>
+        <v>17.39</v>
       </c>
       <c r="H3" t="n">
-        <v>2.55</v>
+        <v>11.06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="J3" t="n">
-        <v>2.29</v>
+        <v>10.59</v>
       </c>
       <c r="K3" t="n">
-        <v>0.88</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.11</v>
+        <v>7.54</v>
       </c>
       <c r="C4" t="n">
-        <v>3.42</v>
+        <v>10.51</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.93</v>
+        <v>7.63</v>
       </c>
       <c r="F4" t="n">
-        <v>6.46</v>
+        <v>26.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.86</v>
+        <v>6.39</v>
       </c>
       <c r="H4" t="n">
-        <v>0.87</v>
+        <v>9.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>11.15</v>
       </c>
       <c r="J4" t="n">
-        <v>1.14</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.82</v>
+        <v>7.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49</v>
+        <v>4.17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.93</v>
+        <v>7.63</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.53</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>3.79</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.43</v>
+        <v>6.39</v>
       </c>
       <c r="J5" t="n">
-        <v>1.79</v>
+        <v>9.58</v>
       </c>
       <c r="K5" t="n">
-        <v>0.39</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.35</v>
+        <v>15.79</v>
       </c>
       <c r="C6" t="n">
-        <v>3.04</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>6.46</v>
+        <v>26.06</v>
       </c>
       <c r="E6" t="n">
-        <v>3.53</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.32</v>
+        <v>24.81</v>
       </c>
       <c r="H6" t="n">
-        <v>5.59</v>
+        <v>12.86</v>
       </c>
       <c r="I6" t="n">
-        <v>4.96</v>
+        <v>13.86</v>
       </c>
       <c r="J6" t="n">
-        <v>5.33</v>
+        <v>12.52</v>
       </c>
       <c r="K6" t="n">
-        <v>3.92</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="C7" t="n">
-        <v>4.28</v>
+        <v>17.39</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>6.39</v>
       </c>
       <c r="E7" t="n">
-        <v>3.79</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>7.32</v>
+        <v>24.81</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73</v>
+        <v>4.89</v>
       </c>
       <c r="I7" t="n">
-        <v>2.36</v>
+        <v>12.01</v>
       </c>
       <c r="J7" t="n">
-        <v>1.99</v>
+        <v>7.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="C8" t="n">
-        <v>2.55</v>
+        <v>11.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.87</v>
+        <v>9.82</v>
       </c>
       <c r="E8" t="n">
-        <v>2.06</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>5.59</v>
+        <v>12.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>4.89</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.63</v>
+        <v>1.87</v>
       </c>
       <c r="J8" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>1.67</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39</v>
+        <v>7.14</v>
       </c>
       <c r="C9" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>11.15</v>
       </c>
       <c r="E9" t="n">
-        <v>1.43</v>
+        <v>6.39</v>
       </c>
       <c r="F9" t="n">
-        <v>4.96</v>
+        <v>13.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>12.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>1.87</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.37</v>
+        <v>4.37</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03</v>
+        <v>0.99</v>
       </c>
       <c r="C10" t="n">
-        <v>2.29</v>
+        <v>10.59</v>
       </c>
       <c r="D10" t="n">
-        <v>1.14</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.79</v>
+        <v>9.58</v>
       </c>
       <c r="F10" t="n">
-        <v>5.33</v>
+        <v>12.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>7.55</v>
       </c>
       <c r="H10" t="n">
-        <v>0.27</v>
+        <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.37</v>
+        <v>4.37</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.4</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.43</v>
+        <v>6.09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.88</v>
+        <v>11.28</v>
       </c>
       <c r="D11" t="n">
-        <v>2.54</v>
+        <v>17.2</v>
       </c>
       <c r="E11" t="n">
-        <v>0.39</v>
+        <v>11.18</v>
       </c>
       <c r="F11" t="n">
-        <v>3.92</v>
+        <v>10.68</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>7.96</v>
       </c>
       <c r="I11" t="n">
-        <v>1.04</v>
+        <v>3.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4</v>
+        <v>6.69</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
